--- a/GridSearchResults/Hyperparameters_NTSK-RLS_Yulara_5_Site_1_Power.xlsx
+++ b/GridSearchResults/Hyperparameters_NTSK-RLS_Yulara_5_Site_1_Power.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>n_clusters</t>
+          <t>rules</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>RLS_option</t>
+          <t>adaptive_filter</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -490,17 +490,19 @@
       <c r="D2" t="n">
         <v>0.95</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F2" t="n">
-        <v>1.54894812229631e+142</v>
+        <v>101.3974874869412</v>
       </c>
       <c r="G2" t="n">
-        <v>3.382805570405918e+140</v>
+        <v>2.21445754417831</v>
       </c>
       <c r="H2" t="n">
-        <v>1.536699265463484e+142</v>
+        <v>84.22182668675116</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -521,17 +523,19 @@
       <c r="D3" t="n">
         <v>0.96</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>231.5055394023601</v>
+        <v>101.3974874869412</v>
       </c>
       <c r="G3" t="n">
-        <v>5.055935812163488</v>
+        <v>2.21445754417831</v>
       </c>
       <c r="H3" t="n">
-        <v>204.6235723319168</v>
+        <v>84.22182668675116</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -552,17 +556,19 @@
       <c r="D4" t="n">
         <v>0.97</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F4" t="n">
-        <v>73.37594175865117</v>
+        <v>73.37929081184632</v>
       </c>
       <c r="G4" t="n">
-        <v>1.602484556725923</v>
+        <v>1.602557697947641</v>
       </c>
       <c r="H4" t="n">
-        <v>56.76858658988469</v>
+        <v>56.77212967937943</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -583,17 +589,19 @@
       <c r="D5" t="n">
         <v>0.98</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>47.41653950803996</v>
+        <v>47.41654268366037</v>
       </c>
       <c r="G5" t="n">
-        <v>1.035547489733717</v>
+        <v>1.035547559087276</v>
       </c>
       <c r="H5" t="n">
-        <v>36.52617806421518</v>
+        <v>36.5261819036096</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -614,17 +622,19 @@
       <c r="D6" t="n">
         <v>0.99</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>39.43684946115528</v>
+        <v>39.43684947521088</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8612760628721381</v>
+        <v>0.8612760631791037</v>
       </c>
       <c r="H6" t="n">
-        <v>31.65500127572423</v>
+        <v>31.6550012908641</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -645,17 +655,19 @@
       <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RLS</t>
+        </is>
       </c>
       <c r="F7" t="n">
-        <v>40.09541371001063</v>
+        <v>40.09541371020276</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8756586931063602</v>
+        <v>0.8756586931105564</v>
       </c>
       <c r="H7" t="n">
-        <v>32.06318268260836</v>
+        <v>32.06318268275651</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
